--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D50E844-F239-4168-87B5-36704B3C4C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC30101-05D3-452C-9943-781205AE8CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC30101-05D3-452C-9943-781205AE8CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B71EE5-5285-401A-93AE-F4B9CA987998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">שם </t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>אתי הייפלר</t>
+  </si>
+  <si>
+    <t>אנוש צור</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B5C733-19D8-4AA7-A34D-6C1423132E57}">
-  <dimension ref="A2:B53"/>
+  <dimension ref="A2:B54"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
@@ -1006,6 +1009,11 @@
         <v>500</v>
       </c>
     </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B71EE5-5285-401A-93AE-F4B9CA987998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CA629F-2EAA-430C-8164-65EA380861A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A2:B54"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,6 +1013,9 @@
       <c r="A54" t="s">
         <v>54</v>
       </c>
+      <c r="B54">
+        <v>900</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CA629F-2EAA-430C-8164-65EA380861A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E414510C-5858-41B5-985F-12935278C13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">שם </t>
   </si>
@@ -198,7 +198,16 @@
     <t>אתי הייפלר</t>
   </si>
   <si>
-    <t>אנוש צור</t>
+    <t>משפחת שפירא (לב, יעקב, זויה)</t>
+  </si>
+  <si>
+    <t>מחלקת קשרי מובן בכלל</t>
+  </si>
+  <si>
+    <t>תהל צברי</t>
+  </si>
+  <si>
+    <t>משפחת זילברמן</t>
   </si>
 </sst>
 </file>
@@ -581,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B5C733-19D8-4AA7-A34D-6C1423132E57}">
-  <dimension ref="A2:B54"/>
+  <dimension ref="A2:B57"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1023,28 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>900</v>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E414510C-5858-41B5-985F-12935278C13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBC4402-8320-4CBD-869E-6114DAF786A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
@@ -1046,6 +1046,9 @@
       <c r="A57" t="s">
         <v>57</v>
       </c>
+      <c r="B57">
+        <v>2200</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBC4402-8320-4CBD-869E-6114DAF786A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83800BCB-EA69-40B4-A242-23683CD63FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t xml:space="preserve">שם </t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>משפחת זילברמן</t>
+  </si>
+  <si>
+    <t>פיליפ אורשטר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מקסים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">העביר בביט לאנוש </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ניר לינג ובי </t>
   </si>
 </sst>
 </file>
@@ -590,16 +602,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B5C733-19D8-4AA7-A34D-6C1423132E57}">
-  <dimension ref="A2:B57"/>
+  <dimension ref="A2:C60"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -978,7 +991,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -986,7 +999,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -994,7 +1007,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1002,7 +1015,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1010,7 +1023,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1018,7 +1031,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1026,7 +1039,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1034,7 +1047,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1042,12 +1055,42 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
       <c r="B57">
         <v>2200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>450</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>1000</v>
+      </c>
+      <c r="C60" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83800BCB-EA69-40B4-A242-23683CD63FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0AE6A4-CAC1-48F6-BD44-EADEC2FF1792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
+    <workbookView xWindow="10245" yWindow="1080" windowWidth="10230" windowHeight="7875" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t xml:space="preserve">שם </t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t xml:space="preserve">ניר לינג ובי </t>
+  </si>
+  <si>
+    <t>תמיר שפיר עדי ומיכל</t>
+  </si>
+  <si>
+    <t>דודה לריסה, ליונה ודבריצה</t>
+  </si>
+  <si>
+    <t>משפחת רוסמן + דואניס (יאנה, דניס,ריטה, מני)</t>
   </si>
 </sst>
 </file>
@@ -602,15 +611,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B5C733-19D8-4AA7-A34D-6C1423132E57}">
-  <dimension ref="A2:C60"/>
+  <dimension ref="A2:C63"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
@@ -1093,6 +1102,30 @@
         <v>60</v>
       </c>
     </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>1400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0AE6A4-CAC1-48F6-BD44-EADEC2FF1792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FF39AD-792A-4824-92DB-FB97B1F1C0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10245" yWindow="1080" windowWidth="10230" windowHeight="7875" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t xml:space="preserve">שם </t>
   </si>
@@ -229,6 +229,21 @@
   </si>
   <si>
     <t>משפחת רוסמן + דואניס (יאנה, דניס,ריטה, מני)</t>
+  </si>
+  <si>
+    <t>יעל קושניר ויונתן</t>
+  </si>
+  <si>
+    <t>לודמילה ולאוניד שטיינברג</t>
+  </si>
+  <si>
+    <t>שי וימית</t>
+  </si>
+  <si>
+    <t>שושי קירשנר</t>
+  </si>
+  <si>
+    <t>דורין יפה</t>
   </si>
 </sst>
 </file>
@@ -611,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B5C733-19D8-4AA7-A34D-6C1423132E57}">
-  <dimension ref="A2:C63"/>
+  <dimension ref="A2:C86"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,6 +1141,52 @@
         <v>1400</v>
       </c>
     </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <f>SUM(B3:B85)</f>
+        <v>63885</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FF39AD-792A-4824-92DB-FB97B1F1C0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73789BF-8582-4D3B-A435-536CDDC28B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10245" yWindow="1080" windowWidth="10230" windowHeight="7875" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t xml:space="preserve">שם </t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>דורין יפה</t>
+  </si>
+  <si>
+    <t>חני גור</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
   <dimension ref="A2:C86"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,10 +1184,18 @@
         <v>555</v>
       </c>
     </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>300</v>
+      </c>
+    </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86">
         <f>SUM(B3:B85)</f>
-        <v>63885</v>
+        <v>64185</v>
       </c>
     </row>
   </sheetData>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73789BF-8582-4D3B-A435-536CDDC28B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B133EBA-748E-4DEA-9C52-DAC0CBCE18B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10245" yWindow="1080" windowWidth="10230" windowHeight="7875" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t xml:space="preserve">שם </t>
   </si>
@@ -247,6 +247,36 @@
   </si>
   <si>
     <t>חני גור</t>
+  </si>
+  <si>
+    <t>ארנונה רובין</t>
+  </si>
+  <si>
+    <t>טל ויוסי שמש</t>
+  </si>
+  <si>
+    <t>שירי ירמולובסקי</t>
+  </si>
+  <si>
+    <t>חוה ומאיר רייפן</t>
+  </si>
+  <si>
+    <t>זיו גולדשטיין</t>
+  </si>
+  <si>
+    <t>גלית אמזלג</t>
+  </si>
+  <si>
+    <t>אינה ובוריס שטיינברג</t>
+  </si>
+  <si>
+    <t>רון אביטן</t>
+  </si>
+  <si>
+    <t>חן קמחי</t>
+  </si>
+  <si>
+    <t>גרישה רימה</t>
   </si>
 </sst>
 </file>
@@ -631,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B5C733-19D8-4AA7-A34D-6C1423132E57}">
   <dimension ref="A2:C86"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,10 +1222,90 @@
         <v>300</v>
       </c>
     </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <v>700</v>
+      </c>
+    </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86">
         <f>SUM(B3:B85)</f>
-        <v>64185</v>
+        <v>80985</v>
       </c>
     </row>
   </sheetData>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B133EBA-748E-4DEA-9C52-DAC0CBCE18B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A3314A-E554-4091-B70C-F477C80C9F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10245" yWindow="1080" windowWidth="10230" windowHeight="7875" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t xml:space="preserve">שם </t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>גרישה רימה</t>
+  </si>
+  <si>
+    <t>אתי ויוסי שפיר</t>
+  </si>
+  <si>
+    <t>הדר דלל</t>
   </si>
 </sst>
 </file>
@@ -662,7 +668,7 @@
   <dimension ref="A2:C86"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,10 +1308,26 @@
         <v>700</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B86">
         <f>SUM(B3:B85)</f>
-        <v>80985</v>
+        <v>82035</v>
       </c>
     </row>
   </sheetData>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A3314A-E554-4091-B70C-F477C80C9F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9858272-DA9B-4A69-B148-F6B183983086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10245" yWindow="1080" windowWidth="10230" windowHeight="7875" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t xml:space="preserve">שם </t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>הדר דלל</t>
+  </si>
+  <si>
+    <t>שי פלג</t>
+  </si>
+  <si>
+    <t>אלי ורותי ארמון</t>
   </si>
 </sst>
 </file>
@@ -668,7 +674,7 @@
   <dimension ref="A2:C86"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,10 +1330,26 @@
         <v>350</v>
       </c>
     </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83">
+        <v>1000</v>
+      </c>
+    </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B86">
         <f>SUM(B3:B85)</f>
-        <v>82035</v>
+        <v>83835</v>
       </c>
     </row>
   </sheetData>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9858272-DA9B-4A69-B148-F6B183983086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD07BA7D-FA6B-47C5-AAF3-C738449FB7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="1080" windowWidth="10230" windowHeight="7875" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
+    <workbookView xWindow="9885" yWindow="0" windowWidth="10230" windowHeight="7875" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t xml:space="preserve">שם </t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>אלי ורותי ארמון</t>
+  </si>
+  <si>
+    <t>קירה ומישה</t>
+  </si>
+  <si>
+    <t>אפרת ואבי חסיד</t>
+  </si>
+  <si>
+    <t>נועה קליין ואיתי</t>
   </si>
 </sst>
 </file>
@@ -671,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B5C733-19D8-4AA7-A34D-6C1423132E57}">
-  <dimension ref="A2:C86"/>
+  <dimension ref="A2:C150"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,10 +1355,34 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85">
+        <v>1500</v>
+      </c>
+    </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
       <c r="B86">
-        <f>SUM(B3:B85)</f>
-        <v>83835</v>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <f>SUM(B3:B149)</f>
+        <v>86635</v>
       </c>
     </row>
   </sheetData>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD07BA7D-FA6B-47C5-AAF3-C738449FB7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9C0D27-0479-4480-92D0-785CF1A2100E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9885" yWindow="0" windowWidth="10230" windowHeight="7875" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t xml:space="preserve">שם </t>
   </si>
@@ -298,6 +298,27 @@
   </si>
   <si>
     <t>נועה קליין ואיתי</t>
+  </si>
+  <si>
+    <t>רותי זיתוני</t>
+  </si>
+  <si>
+    <t>נדב שפיצר</t>
+  </si>
+  <si>
+    <t>אלכסיי וכריסטינה</t>
+  </si>
+  <si>
+    <t>שרון סימה</t>
+  </si>
+  <si>
+    <t>תום חניה ואורטל</t>
+  </si>
+  <si>
+    <t>ניקי ומיכאל קופלוביץ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אתי חנן </t>
   </si>
 </sst>
 </file>
@@ -682,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B5C733-19D8-4AA7-A34D-6C1423132E57}">
   <dimension ref="A2:C150"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,10 +1400,66 @@
         <v>700</v>
       </c>
     </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>500</v>
+      </c>
+    </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150">
         <f>SUM(B3:B149)</f>
-        <v>86635</v>
+        <v>90985</v>
       </c>
     </row>
   </sheetData>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9C0D27-0479-4480-92D0-785CF1A2100E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89714F7E-34AE-4289-8E67-A6789F5254A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9885" yWindow="0" windowWidth="10230" windowHeight="7875" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t xml:space="preserve">שם </t>
   </si>
@@ -319,6 +319,27 @@
   </si>
   <si>
     <t xml:space="preserve">אתי חנן </t>
+  </si>
+  <si>
+    <t>לא ידוע</t>
+  </si>
+  <si>
+    <t>תאופיק חורי</t>
+  </si>
+  <si>
+    <t>יעקב ונלה צ'קלין</t>
+  </si>
+  <si>
+    <t>אבנר הררי</t>
+  </si>
+  <si>
+    <t>ספיר בן-שחר</t>
+  </si>
+  <si>
+    <t>בלה נפדנסקי</t>
+  </si>
+  <si>
+    <t>דניאלה יזרעאלי</t>
   </si>
 </sst>
 </file>
@@ -703,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B5C733-19D8-4AA7-A34D-6C1423132E57}">
   <dimension ref="A2:C150"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,10 +1477,66 @@
         <v>500</v>
       </c>
     </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100">
+        <v>2500</v>
+      </c>
+    </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150">
         <f>SUM(B3:B149)</f>
-        <v>90985</v>
+        <v>96435</v>
       </c>
     </row>
   </sheetData>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89714F7E-34AE-4289-8E67-A6789F5254A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716DE313-6B4A-4DE6-8CCF-AE855CB6EDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9885" yWindow="0" windowWidth="10230" windowHeight="7875" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t xml:space="preserve">שם </t>
   </si>
@@ -340,6 +340,15 @@
   </si>
   <si>
     <t>דניאלה יזרעאלי</t>
+  </si>
+  <si>
+    <t>שביק ודני טל</t>
+  </si>
+  <si>
+    <t>חביב רוזיליו</t>
+  </si>
+  <si>
+    <t>אורי כץ</t>
   </si>
 </sst>
 </file>
@@ -724,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B5C733-19D8-4AA7-A34D-6C1423132E57}">
   <dimension ref="A2:C150"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,10 +1542,34 @@
         <v>2500</v>
       </c>
     </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103">
+        <v>2600</v>
+      </c>
+    </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150">
         <f>SUM(B3:B149)</f>
-        <v>96435</v>
+        <v>100435</v>
       </c>
     </row>
   </sheetData>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716DE313-6B4A-4DE6-8CCF-AE855CB6EDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B23A4C-4E76-4438-949B-D57BD79601BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9885" yWindow="0" windowWidth="10230" windowHeight="7875" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
   <si>
     <t xml:space="preserve">שם </t>
   </si>
@@ -349,6 +349,15 @@
   </si>
   <si>
     <t>אורי כץ</t>
+  </si>
+  <si>
+    <t>סנדו ובלה</t>
+  </si>
+  <si>
+    <t>טל ומאור</t>
+  </si>
+  <si>
+    <t>סטה טן ואלה</t>
   </si>
 </sst>
 </file>
@@ -733,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B5C733-19D8-4AA7-A34D-6C1423132E57}">
   <dimension ref="A2:C150"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,10 +1575,31 @@
         <v>2600</v>
       </c>
     </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150">
         <f>SUM(B3:B149)</f>
-        <v>100435</v>
+        <v>102435</v>
       </c>
     </row>
   </sheetData>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B23A4C-4E76-4438-949B-D57BD79601BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DFBE3F-A30E-4CFB-9C38-8F6EACC0D9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9885" yWindow="0" windowWidth="10230" windowHeight="7875" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
@@ -743,7 +743,7 @@
   <dimension ref="A2:C150"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,11 +1595,14 @@
       <c r="A106" t="s">
         <v>107</v>
       </c>
+      <c r="B106">
+        <v>600</v>
+      </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150">
         <f>SUM(B3:B149)</f>
-        <v>102435</v>
+        <v>103035</v>
       </c>
     </row>
   </sheetData>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DFBE3F-A30E-4CFB-9C38-8F6EACC0D9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D946A83F-13BA-4DCF-8B6A-B0696A8D1EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9885" yWindow="0" windowWidth="10230" windowHeight="7875" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
   <si>
     <t xml:space="preserve">שם </t>
   </si>
@@ -358,6 +358,39 @@
   </si>
   <si>
     <t>סטה טן ואלה</t>
+  </si>
+  <si>
+    <t>יעקב ולולה אביטן</t>
+  </si>
+  <si>
+    <t>מתן פשלי צברי</t>
+  </si>
+  <si>
+    <t>1300 שולמו לצלם מגנטים</t>
+  </si>
+  <si>
+    <t>ולאד</t>
+  </si>
+  <si>
+    <t>אפלבוים שאול ובת שבע</t>
+  </si>
+  <si>
+    <t>שרי ודורון שטיין</t>
+  </si>
+  <si>
+    <t>ימית וגדי דיין</t>
+  </si>
+  <si>
+    <t>סרגיי ונטליה רוסמן</t>
+  </si>
+  <si>
+    <t>דריה לאונטייב</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מוניה </t>
+  </si>
+  <si>
+    <t>אסתי רעי</t>
   </si>
 </sst>
 </file>
@@ -742,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B5C733-19D8-4AA7-A34D-6C1423132E57}">
   <dimension ref="A2:C150"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,7 +1552,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -1527,7 +1560,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -1535,7 +1568,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -1543,7 +1576,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -1551,7 +1584,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -1559,7 +1592,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -1567,7 +1600,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -1575,7 +1608,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -1583,7 +1616,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -1591,18 +1624,98 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
       <c r="B106">
         <v>600</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108">
+        <v>250</v>
+      </c>
+      <c r="C108" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150">
         <f>SUM(B3:B149)</f>
-        <v>103035</v>
+        <v>109885</v>
       </c>
     </row>
   </sheetData>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D946A83F-13BA-4DCF-8B6A-B0696A8D1EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB91A207-6BFE-4C37-896A-C09E15D3F5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9885" yWindow="0" windowWidth="10230" windowHeight="7875" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
   <si>
     <t xml:space="preserve">שם </t>
   </si>
@@ -391,6 +391,18 @@
   </si>
   <si>
     <t>אסתי רעי</t>
+  </si>
+  <si>
+    <t>אייספטר</t>
+  </si>
+  <si>
+    <t>טניה פרל</t>
+  </si>
+  <si>
+    <t>דני וקרן אורן</t>
+  </si>
+  <si>
+    <t>תקוה חדד</t>
   </si>
 </sst>
 </file>
@@ -775,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B5C733-19D8-4AA7-A34D-6C1423132E57}">
   <dimension ref="A2:C150"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,11 +1723,46 @@
       <c r="A116" t="s">
         <v>118</v>
       </c>
+      <c r="B116">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120">
+        <v>1000</v>
+      </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150">
         <f>SUM(B3:B149)</f>
-        <v>109885</v>
+        <v>113285</v>
       </c>
     </row>
   </sheetData>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB91A207-6BFE-4C37-896A-C09E15D3F5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C597BC1-3E6B-42CE-BA70-3660F661951C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9885" yWindow="0" windowWidth="10230" windowHeight="7875" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
+    <sheet name="גיליון2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="134">
   <si>
     <t xml:space="preserve">שם </t>
   </si>
@@ -403,6 +404,39 @@
   </si>
   <si>
     <t>תקוה חדד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ליליה </t>
+  </si>
+  <si>
+    <t>אסתי הכט ורוזה ישראל</t>
+  </si>
+  <si>
+    <t>חזן סמדר ושלומי</t>
+  </si>
+  <si>
+    <t>גילי וצביקה גנדלמן</t>
+  </si>
+  <si>
+    <t>ז'קלין ובבר בן סימון</t>
+  </si>
+  <si>
+    <t>אודי ואורורה חדד</t>
+  </si>
+  <si>
+    <t>פנינה גמזו</t>
+  </si>
+  <si>
+    <t>אילנה שבתאי</t>
+  </si>
+  <si>
+    <t>אלעד ונועה יזרעאלי</t>
+  </si>
+  <si>
+    <t>שמעון הררי</t>
+  </si>
+  <si>
+    <t>עפרה גלעד</t>
   </si>
 </sst>
 </file>
@@ -787,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B5C733-19D8-4AA7-A34D-6C1423132E57}">
   <dimension ref="A2:C150"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,14 +1793,116 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131">
+        <v>500</v>
+      </c>
+    </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150">
         <f>SUM(B3:B149)</f>
-        <v>113285</v>
+        <v>125135</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E376DE2-6F4A-4227-9869-44191F63CA8D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C597BC1-3E6B-42CE-BA70-3660F661951C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E8F502-3F13-432B-AE81-F076BF676559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9885" yWindow="0" windowWidth="10230" windowHeight="7875" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="145">
   <si>
     <t xml:space="preserve">שם </t>
   </si>
@@ -364,9 +364,6 @@
     <t>יעקב ולולה אביטן</t>
   </si>
   <si>
-    <t>מתן פשלי צברי</t>
-  </si>
-  <si>
     <t>1300 שולמו לצלם מגנטים</t>
   </si>
   <si>
@@ -437,6 +434,42 @@
   </si>
   <si>
     <t>עפרה גלעד</t>
+  </si>
+  <si>
+    <t>יובל ושירלי בן ארדיטי</t>
+  </si>
+  <si>
+    <t>אסתי שריקי</t>
+  </si>
+  <si>
+    <t>מתני וירדן</t>
+  </si>
+  <si>
+    <t>מתן קמיאנסקי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">רוית בן עמי </t>
+  </si>
+  <si>
+    <t>רן ושיר</t>
+  </si>
+  <si>
+    <t>אנה לזרוב</t>
+  </si>
+  <si>
+    <t>משפחת צ'רקסקי-שפירא</t>
+  </si>
+  <si>
+    <t>עופר בדש</t>
+  </si>
+  <si>
+    <t>יוסי יחזקאל</t>
+  </si>
+  <si>
+    <t>אילנה אופוגין</t>
+  </si>
+  <si>
+    <t xml:space="preserve">רומן וילנה </t>
   </si>
 </sst>
 </file>
@@ -821,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B5C733-19D8-4AA7-A34D-6C1423132E57}">
   <dimension ref="A2:C150"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,7 +1631,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -1606,7 +1639,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -1614,7 +1647,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -1622,7 +1655,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -1630,7 +1663,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -1638,7 +1671,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -1646,7 +1679,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -1654,7 +1687,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -1662,7 +1695,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -1670,7 +1703,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -1678,7 +1711,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -1686,44 +1719,41 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="B108">
         <v>250</v>
       </c>
-      <c r="C108" t="s">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>111</v>
       </c>
       <c r="B109">
         <v>500</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110">
         <v>700</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111">
         <v>2000</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112">
         <v>700</v>
@@ -1731,7 +1761,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113">
         <v>800</v>
@@ -1739,7 +1769,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B114">
         <v>400</v>
@@ -1747,7 +1777,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B115">
         <v>500</v>
@@ -1755,7 +1785,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B116">
         <v>500</v>
@@ -1763,7 +1793,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B117">
         <v>600</v>
@@ -1771,7 +1801,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B118">
         <v>300</v>
@@ -1779,7 +1809,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B119">
         <v>1000</v>
@@ -1787,7 +1817,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B120">
         <v>1000</v>
@@ -1795,7 +1825,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B121">
         <v>350</v>
@@ -1803,7 +1833,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B122">
         <v>500</v>
@@ -1811,7 +1841,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B123">
         <v>500</v>
@@ -1819,7 +1849,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B124">
         <v>1500</v>
@@ -1827,7 +1857,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B125">
         <v>1000</v>
@@ -1835,7 +1865,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B126">
         <v>4500</v>
@@ -1843,7 +1873,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B127">
         <v>900</v>
@@ -1851,40 +1881,131 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B128">
         <v>600</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B129">
         <v>1000</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B130">
         <v>500</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B131">
         <v>500</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134">
+        <v>200</v>
+      </c>
+      <c r="C134" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142">
+        <v>700</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150">
         <f>SUM(B3:B149)</f>
-        <v>125135</v>
+        <v>133035</v>
       </c>
     </row>
   </sheetData>

--- a/כמה כולם הביאו לחתונה.xlsx
+++ b/כמה כולם הביאו לחתונה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\how-many-money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E8F502-3F13-432B-AE81-F076BF676559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B4A5BD-4DC0-4977-A4F2-74D145F15927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9885" yWindow="0" windowWidth="10230" windowHeight="7875" xr2:uid="{B4E3BC49-6AAF-41E1-890B-8C447EADD5B7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="149">
   <si>
     <t xml:space="preserve">שם </t>
   </si>
@@ -470,6 +470,18 @@
   </si>
   <si>
     <t xml:space="preserve">רומן וילנה </t>
+  </si>
+  <si>
+    <t>צלם - דימה וזינוביץ</t>
+  </si>
+  <si>
+    <t>דיג'יי - טל מור</t>
+  </si>
+  <si>
+    <t>החזר לאמא של אנוש</t>
+  </si>
+  <si>
+    <t>סה"כ</t>
   </si>
 </sst>
 </file>
@@ -535,9 +547,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B5C733-19D8-4AA7-A34D-6C1423132E57}">
   <dimension ref="A2:C150"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,10 +2015,37 @@
         <v>700</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>-7900</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>-8750</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2">
         <f>SUM(B3:B149)</f>
-        <v>133035</v>
+        <v>110385</v>
       </c>
     </row>
   </sheetData>
